--- a/mini.xlsx
+++ b/mini.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\yh\INR_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8504D2-8F18-4B8E-8566-ED87F11F82DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8788B29D-764B-4301-91AB-2BD9A6E396AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31065" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,112 +484,80 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>2648</v>
-      </c>
-      <c r="C2" s="1">
-        <v>543</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>1382</v>
-      </c>
-      <c r="C3" s="1">
-        <v>292</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>919</v>
-      </c>
-      <c r="C4" s="1">
-        <v>293</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>705</v>
-      </c>
-      <c r="C5" s="1">
-        <v>291</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>566</v>
-      </c>
-      <c r="C6" s="1">
-        <v>291</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
-        <v>480</v>
-      </c>
-      <c r="C7" s="1">
-        <v>292</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
-        <v>417</v>
-      </c>
-      <c r="C8" s="1">
-        <v>292</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
-        <v>373</v>
-      </c>
-      <c r="C9" s="1">
-        <v>294</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
